--- a/sprints.xlsx
+++ b/sprints.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\universidad\TFG\DIPAMIA-TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{083119CB-D2F3-43DD-8CD6-A7295E92FAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CE1DA7-5A06-4095-BEE5-BC951C49AC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>Tareas Pendientes</t>
   </si>
@@ -66,11 +66,29 @@
   <si>
     <t>SPRINT 5</t>
   </si>
+  <si>
+    <t>16/01/2024 - 02/02/2024</t>
+  </si>
+  <si>
+    <t>SPRINT 6</t>
+  </si>
+  <si>
+    <t>SPRINT 7</t>
+  </si>
+  <si>
+    <t>02/02/2024 - 23/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024 - 08/03/2024</t>
+  </si>
+  <si>
+    <t>SPRINT 8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,13 +244,13 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -356,13 +374,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -620,905 +638,30 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$A$3:$A$9</c:f>
+              <c:f>Hoja1!$A$20:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Hoja2!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>45254</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45258</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45261</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45263</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45264</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45265</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja2!$A$3:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-02A0-4E45-93F5-BE4D117F15F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja2!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Hoja2!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>45254</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45258</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45261</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45263</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45264</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45265</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja2!$A$3:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-02A0-4E45-93F5-BE4D117F15F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja2!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Hoja2!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>45254</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45258</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45261</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45263</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45264</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45265</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja2!$A$3:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-02A0-4E45-93F5-BE4D117F15F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja2!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Hoja2!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>45254</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45258</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45261</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45263</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45264</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45265</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja2!$A$3:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-02A0-4E45-93F5-BE4D117F15F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja2!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Hoja2!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>45254</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45258</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45261</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45263</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45264</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45265</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja2!$A$3:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-02A0-4E45-93F5-BE4D117F15F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja2!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1604,7 +747,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja2!$B$3:$B$9</c:f>
+              <c:f>Hoja1!$B$20:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1634,27 +777,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$A$3:$A$9</c:f>
+              <c:f>Hoja1!$A$20:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1665,7 +808,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-02A0-4E45-93F5-BE4D117F15F0}"/>
+              <c16:uniqueId val="{00000000-D61A-4344-9270-AB18114CD851}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1916,13 +1059,13 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -2046,13 +1189,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -2324,7 +1467,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -2332,13 +1475,161 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$52:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$52:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-376C-4104-9ADF-8320E56CA508}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$52:$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2450,13 +1741,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2467,7 +1758,421 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8FD-4D37-A430-79EFA5F07141}"/>
+              <c16:uniqueId val="{00000001-376C-4104-9ADF-8320E56CA508}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="469971407"/>
+        <c:axId val="456564511"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="469971407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456564511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="456564511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="469971407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 6</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>16/01/2024 - 02/02/2024</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24402777777777779"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$68:$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$68:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$68:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDE0-44F5-9F4D-D049996C41DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2618,7 +2323,847 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 7</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>02/02/2024 - 23/02/2024</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24402777777777779"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$84:$A$89</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$84:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$84:$A$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D721-4173-85FE-693081596260}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="469971407"/>
+        <c:axId val="456564511"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="469971407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456564511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="456564511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="469971407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 8</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>23/02/2024 - 08/03/2024</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24402777777777779"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$101:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$101:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$101:$A$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F51E-4875-A9F9-461ACC9C55E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="469971407"/>
+        <c:axId val="456564511"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="469971407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456564511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="456564511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="469971407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3229,6 +3774,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
@@ -5502,6 +6167,1710 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6216,6 +8585,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81E51CA-9889-4D85-8B17-8A8DB63B3998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E014E42-7B68-4B46-9B67-41DCEBBBFD54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D70D96-7E19-4E38-8C2F-5932791FD710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6583,11 +9066,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6610,7 +9093,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>45224</v>
@@ -6618,7 +9101,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>45227</v>
@@ -6626,7 +9109,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>45229</v>
@@ -6674,7 +9157,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1">
         <v>45254</v>
@@ -6682,7 +9165,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
         <v>45256</v>
@@ -6690,7 +9173,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
         <v>45258</v>
@@ -6706,7 +9189,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="B24" s="1">
         <v>45263</v>
@@ -6714,7 +9197,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>45264</v>
@@ -6746,7 +9229,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1">
         <v>45267</v>
@@ -6754,7 +9237,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1">
         <v>45272</v>
@@ -6762,7 +9245,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1">
         <v>45274</v>
@@ -6813,7 +9296,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B52" s="1">
         <v>45283</v>
@@ -6821,7 +9304,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B53" s="1">
         <v>45290</v>
@@ -6829,7 +9312,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54" s="1">
         <v>45301</v>
@@ -6848,6 +9331,198 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>14</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45318</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>28</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45325</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>26</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>24</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>18</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>12</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>22</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45346</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>20</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>17</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>10</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45358</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6857,7 +9532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6946,7 +9621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
